--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletaValorizacionProcesamientoGNALoteIv.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletaValorizacionProcesamientoGNALoteIv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CF5DF2-86A9-47C8-978B-5A7421FA7FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B377A5C-0047-4710-9C6A-EDDE2913C954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA8E5B8A-FBF9-456C-B80A-A2F7448080ED}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +172,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -293,22 +300,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -383,6 +375,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,15 +472,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1436973</xdr:colOff>
+      <xdr:colOff>1370298</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -502,7 +509,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2466975" y="4533901"/>
+          <a:off x="2400300" y="3781426"/>
           <a:ext cx="865473" cy="514349"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -814,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7778FF-B81A-48F0-843E-44C01184EB00}">
   <dimension ref="A4:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,24 +835,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -863,129 +870,132 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="19"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="14"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+    <row r="17" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
+    <row r="20" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="13"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="14" t="s">
+    <row r="21" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletaValorizacionProcesamientoGNALoteIv.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletaValorizacionProcesamientoGNALoteIv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B377A5C-0047-4710-9C6A-EDDE2913C954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA67F353-6F69-490D-BA6F-0739BE093658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA8E5B8A-FBF9-456C-B80A-A2F7448080ED}"/>
   </bookViews>
@@ -355,6 +355,21 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -375,21 +390,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,56 +465,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1370298</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B151B0E9-2178-4FC9-83BA-5C81ECE572B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2400300" y="3781426"/>
-          <a:ext cx="865473" cy="514349"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -822,7 +772,7 @@
   <dimension ref="A4:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,12 +785,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -872,26 +822,26 @@
     </row>
     <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="27" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -919,10 +869,10 @@
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="18" t="s">
         <v>16</v>
       </c>
@@ -933,10 +883,10 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="17" t="s">
         <v>18</v>
       </c>
@@ -947,29 +897,29 @@
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="17" t="s">
         <v>24</v>
       </c>
